--- a/tut04/output_individual_roll/2011EE10.xlsx
+++ b/tut04/output_individual_roll/2011EE10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,28 +435,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2011EE10</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EE595</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
